--- a/FoodAPPDATA.xlsx
+++ b/FoodAPPDATA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>https://www.indianhealthyrecipes.com/wp-content/uploads/2021/05/sambar.jpg</t>
   </si>
@@ -45,23 +45,36 @@
     <t>https://www.indianhealthyrecipes.com/wp-content/uploads/2015/12/jeera-rice-recipe.jpg</t>
   </si>
   <si>
-    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.freepik.com%2Fpremium-ai-image%2Fdal-makhani-with-jeera-rice_307165209.htm&amp;psig=AOvVaw2HoI60H5Dw2UgmVkp-rkTd&amp;ust=1735118570436000&amp;source=images&amp;cd=vfe&amp;opi=89978449&amp;ved=0CBQQjRxqFwoTCIDdocSKwIoDFQAAAAAdAAAAABAE</t>
-  </si>
-  <si>
     <t>Dall Makhini</t>
+  </si>
+  <si>
+    <t>https://img-global.cpcdn.com/recipes/7650b1942bfd97c4/400x400cq70/photo.jpg</t>
+  </si>
+  <si>
+    <t>butter naan dal makhani</t>
+  </si>
+  <si>
+    <t>https://shwetainthekitchen.com/wp-content/uploads/2019/11/IMG_6917_1-scaled.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,14 +94,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -440,13 +458,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FoodAPPDATA.xlsx
+++ b/FoodAPPDATA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>https://www.indianhealthyrecipes.com/wp-content/uploads/2021/05/sambar.jpg</t>
   </si>
@@ -45,16 +45,10 @@
     <t>https://www.indianhealthyrecipes.com/wp-content/uploads/2015/12/jeera-rice-recipe.jpg</t>
   </si>
   <si>
-    <t>Dall Makhini</t>
-  </si>
-  <si>
     <t>https://img-global.cpcdn.com/recipes/7650b1942bfd97c4/400x400cq70/photo.jpg</t>
   </si>
   <si>
     <t>butter naan dal makhani</t>
-  </si>
-  <si>
-    <t>https://shwetainthekitchen.com/wp-content/uploads/2019/11/IMG_6917_1-scaled.jpg</t>
   </si>
 </sst>
 </file>
@@ -402,7 +396,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -457,25 +451,17 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>170</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/FoodAPPDATA.xlsx
+++ b/FoodAPPDATA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>https://www.indianhealthyrecipes.com/wp-content/uploads/2021/05/sambar.jpg</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>butter naan dal makhani</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/rainforest-cruises/images/c_fill,g_auto/f_auto,q_auto/v1661887113/indian-food/indian-food.jpg</t>
+  </si>
+  <si>
+    <t>https://www.bitesbee.com/wp-content/uploads/2021/09/Chole-Bhature.jpg</t>
+  </si>
+  <si>
+    <t>https://static.toiimg.com/photo/96559646/96559646.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/rainforest-cruises/images/c_fill,g_auto/f_auto,q_auto/w_1120,h_732,c_fill,g_auto/v1661347434/india-food-chicken-pakora/india-food-chicken-pakora-1120x732.jpg</t>
+  </si>
+  <si>
+    <t>https://www.holidify.com/blog/wp-content/uploads/2015/11/Maharashtras_Misal_Pav.jpg</t>
+  </si>
+  <si>
+    <t>https://www.eatingwell.com/thmb/kApzxiwARsrq9ILeAkRRdvlXrQs=/1500x0/filters:no_upscale():max_bytes(150000):strip_icc()/3879366-0fbeae20516648df942721efa761894c.jpg</t>
+  </si>
+  <si>
+    <t>https://images.yummy.ph/yummy/uploads/2023/02/biryani.jpg</t>
+  </si>
+  <si>
+    <t>Biryani</t>
+  </si>
+  <si>
+    <t>Misal Pav</t>
+  </si>
+  <si>
+    <t>Chiken Pokoda</t>
+  </si>
+  <si>
+    <t>Chole Bhature</t>
   </si>
 </sst>
 </file>
@@ -393,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -464,6 +497,53 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FoodAPPDATA.xlsx
+++ b/FoodAPPDATA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>https://www.indianhealthyrecipes.com/wp-content/uploads/2021/05/sambar.jpg</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Chole Bhature</t>
+  </si>
+  <si>
+    <t>Dahi Bada</t>
+  </si>
+  <si>
+    <t>Masala Dosa</t>
+  </si>
+  <si>
+    <t>Pulav</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -498,6 +507,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -511,6 +523,9 @@
       </c>
     </row>
     <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -532,6 +547,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>

--- a/FoodAPPDATA.xlsx
+++ b/FoodAPPDATA.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/FoodAPPDATA.xlsx
+++ b/FoodAPPDATA.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -510,6 +510,9 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -518,6 +521,9 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -526,6 +532,9 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
+      <c r="B9">
+        <v>230</v>
+      </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -534,6 +543,9 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -542,6 +554,9 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -550,6 +565,9 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -557,6 +575,9 @@
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
